--- a/planning/TASKS_CitizenData.xlsx
+++ b/planning/TASKS_CitizenData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Task</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>DueDate</t>
+  </si>
+  <si>
+    <t>Scheduled</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,11 +488,18 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="C3" t="str">
+        <f>TEXT(D3,"DD-MMM-YY")</f>
+        <v>15-Oct-19</v>
+      </c>
+      <c r="D3" s="5">
+        <v>43753</v>
+      </c>
+      <c r="E3" s="7">
+        <v>60</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
         <v>6</v>

--- a/planning/TASKS_CitizenData.xlsx
+++ b/planning/TASKS_CitizenData.xlsx
@@ -39,9 +39,6 @@
     <t>Develop an Android citizen data entry applicaton which include images and GPS data.</t>
   </si>
   <si>
-    <t>Applie Citizen Data App</t>
-  </si>
-  <si>
     <t>Develop an Apple citizen data entry applicaton which include images and GPS data.</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>Scheduled</t>
+  </si>
+  <si>
+    <t>Apple Citizen Data App</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,16 +444,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -464,7 +464,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="str">
         <f>TEXT(D2,"DD-MMM-YY")</f>
@@ -488,7 +488,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="str">
         <f>TEXT(D3,"DD-MMM-YY")</f>
@@ -498,7 +498,7 @@
         <v>43753</v>
       </c>
       <c r="E3" s="7">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
@@ -507,17 +507,17 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="5"/>
       <c r="E4" s="7"/>
       <c r="F4" s="3"/>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">

--- a/planning/TASKS_CitizenData.xlsx
+++ b/planning/TASKS_CitizenData.xlsx
@@ -424,7 +424,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +477,7 @@
         <v>24</v>
       </c>
       <c r="F2" s="6">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>

--- a/planning/TASKS_CitizenData.xlsx
+++ b/planning/TASKS_CitizenData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Task</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Proposed</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
     <t>DueAsDate</t>
   </si>
   <si>
@@ -60,10 +57,10 @@
     <t>DueDate</t>
   </si>
   <si>
-    <t>Scheduled</t>
-  </si>
-  <si>
     <t>Apple Citizen Data App</t>
+  </si>
+  <si>
+    <t>Complete</t>
   </si>
 </sst>
 </file>
@@ -99,9 +96,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -423,15 +419,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
   </cols>
@@ -444,16 +440,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -464,20 +460,20 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C2" t="str">
         <f>TEXT(D2,"DD-MMM-YY")</f>
         <v>15-Aug-19</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>43692</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>24</v>
       </c>
-      <c r="F2" s="6">
-        <v>0.75</v>
+      <c r="F2" s="5">
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
@@ -488,46 +484,39 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="str">
-        <f>TEXT(D3,"DD-MMM-YY")</f>
-        <v>15-Oct-19</v>
-      </c>
-      <c r="D3" s="5">
-        <v>43753</v>
-      </c>
-      <c r="E3" s="7">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="6">
         <v>80</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="2"/>
       <c r="G3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="2"/>
       <c r="G4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F5" s="3"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F6" s="2"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F7" s="2"/>
+      <c r="F7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
